--- a/documentation/quality/Test Documents/04 TC - Suppliers.xlsx
+++ b/documentation/quality/Test Documents/04 TC - Suppliers.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="19440" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="279">
   <si>
     <t>Tester:</t>
   </si>
@@ -1086,15 +1086,33 @@
       <t xml:space="preserve"> as part of the High priority testing requirements.</t>
     </r>
   </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>PERCENTAGE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1143,7 +1161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1174,8 +1192,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1300,6 +1330,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1308,7 +1353,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1392,6 +1437,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1484,6 +1553,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1562,6 +1636,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1596,6 +1671,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1771,14 +1847,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -1788,7 +1864,7 @@
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>271</v>
       </c>
@@ -1799,7 +1875,7 @@
       <c r="F1" s="49"/>
       <c r="G1" s="50"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
@@ -1809,8 +1885,23 @@
       <c r="E2" s="43"/>
       <c r="F2" s="43"/>
       <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="I2" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>1</v>
       </c>
@@ -1820,8 +1911,28 @@
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
       <c r="G3" s="44"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="I3" s="56">
+        <f>AVERAGE(Sheet2!B17/88)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="56">
+        <f>AVERAGE(Sheet2!C17/88)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="56">
+        <f>AVERAGE(Sheet2!D17/88)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="56">
+        <f>AVERAGE(Sheet2!E17/88)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="56">
+        <f>SUM(I3:L4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>270</v>
       </c>
@@ -1831,8 +1942,13 @@
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -1845,7 +1961,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
@@ -1868,7 +1984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="120.75" customHeight="1" thickBot="1">
+    <row r="7" spans="1:15" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>19</v>
       </c>
@@ -1894,7 +2010,7 @@
       <c r="N7" s="46"/>
       <c r="O7" s="47"/>
     </row>
-    <row r="8" spans="1:15" ht="75">
+    <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>21</v>
       </c>
@@ -1911,7 +2027,7 @@
       </c>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="1:15" ht="60">
+    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>24</v>
       </c>
@@ -1928,7 +2044,7 @@
       </c>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:15" ht="60">
+    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>25</v>
       </c>
@@ -1945,7 +2061,7 @@
       </c>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:15" ht="195">
+    <row r="11" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>26</v>
       </c>
@@ -1962,7 +2078,7 @@
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:15" ht="60">
+    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>27</v>
       </c>
@@ -1979,7 +2095,7 @@
       </c>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:15" s="11" customFormat="1">
+    <row r="13" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>4.0999999999999996</v>
       </c>
@@ -1992,7 +2108,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:15" ht="45">
+    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>44</v>
       </c>
@@ -2009,7 +2125,7 @@
       </c>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:15" ht="45">
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>45</v>
       </c>
@@ -2026,7 +2142,7 @@
       </c>
       <c r="G15" s="20"/>
     </row>
-    <row r="16" spans="1:15" ht="60">
+    <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>46</v>
       </c>
@@ -2043,7 +2159,7 @@
       </c>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" ht="60">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>47</v>
       </c>
@@ -2060,7 +2176,7 @@
       </c>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" ht="45">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>48</v>
       </c>
@@ -2077,7 +2193,7 @@
       </c>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>4.2</v>
       </c>
@@ -2090,7 +2206,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" ht="45">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>49</v>
       </c>
@@ -2107,7 +2223,7 @@
       </c>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" spans="1:7" ht="60">
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>50</v>
       </c>
@@ -2124,7 +2240,7 @@
       </c>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="1:7" ht="60">
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>51</v>
       </c>
@@ -2141,7 +2257,7 @@
       </c>
       <c r="G22" s="20"/>
     </row>
-    <row r="23" spans="1:7" ht="60">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>52</v>
       </c>
@@ -2158,7 +2274,7 @@
       </c>
       <c r="G23" s="20"/>
     </row>
-    <row r="24" spans="1:7" ht="30">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>53</v>
       </c>
@@ -2175,7 +2291,7 @@
       </c>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="1:7" ht="45">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>54</v>
       </c>
@@ -2192,7 +2308,7 @@
       </c>
       <c r="G25" s="20"/>
     </row>
-    <row r="26" spans="1:7" ht="45">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>55</v>
       </c>
@@ -2209,7 +2325,7 @@
       </c>
       <c r="G26" s="20"/>
     </row>
-    <row r="27" spans="1:7" ht="45">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>56</v>
       </c>
@@ -2226,7 +2342,7 @@
       </c>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7" ht="45">
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>57</v>
       </c>
@@ -2243,7 +2359,7 @@
       </c>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" ht="45">
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>58</v>
       </c>
@@ -2260,7 +2376,7 @@
       </c>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7" ht="45">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>59</v>
       </c>
@@ -2277,7 +2393,7 @@
       </c>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" ht="45">
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>60</v>
       </c>
@@ -2294,7 +2410,7 @@
       </c>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" ht="60">
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>83</v>
       </c>
@@ -2311,7 +2427,7 @@
       </c>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:7" ht="60">
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>84</v>
       </c>
@@ -2328,7 +2444,7 @@
       </c>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" ht="60">
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>85</v>
       </c>
@@ -2345,7 +2461,7 @@
       </c>
       <c r="G34" s="20"/>
     </row>
-    <row r="35" spans="1:7" ht="60">
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>86</v>
       </c>
@@ -2362,7 +2478,7 @@
       </c>
       <c r="G35" s="20"/>
     </row>
-    <row r="36" spans="1:7" ht="75">
+    <row r="36" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>95</v>
       </c>
@@ -2379,7 +2495,7 @@
       </c>
       <c r="G36" s="20"/>
     </row>
-    <row r="37" spans="1:7" ht="60">
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>96</v>
       </c>
@@ -2396,7 +2512,7 @@
       </c>
       <c r="G37" s="20"/>
     </row>
-    <row r="38" spans="1:7" ht="30">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>4.3</v>
       </c>
@@ -2409,7 +2525,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" ht="60">
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>104</v>
       </c>
@@ -2428,7 +2544,7 @@
       </c>
       <c r="G39" s="20"/>
     </row>
-    <row r="40" spans="1:7" ht="60">
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>105</v>
       </c>
@@ -2447,7 +2563,7 @@
       </c>
       <c r="G40" s="20"/>
     </row>
-    <row r="41" spans="1:7" ht="60">
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>106</v>
       </c>
@@ -2466,7 +2582,7 @@
       </c>
       <c r="G41" s="20"/>
     </row>
-    <row r="42" spans="1:7" ht="60">
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>107</v>
       </c>
@@ -2485,7 +2601,7 @@
       </c>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="1:7" ht="45">
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>108</v>
       </c>
@@ -2504,7 +2620,7 @@
       </c>
       <c r="G43" s="20"/>
     </row>
-    <row r="44" spans="1:7" ht="45">
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>109</v>
       </c>
@@ -2523,7 +2639,7 @@
       </c>
       <c r="G44" s="20"/>
     </row>
-    <row r="45" spans="1:7" ht="45">
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>110</v>
       </c>
@@ -2542,7 +2658,7 @@
       </c>
       <c r="G45" s="20"/>
     </row>
-    <row r="46" spans="1:7" ht="45">
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>111</v>
       </c>
@@ -2561,7 +2677,7 @@
       </c>
       <c r="G46" s="20"/>
     </row>
-    <row r="47" spans="1:7" ht="45">
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>112</v>
       </c>
@@ -2580,7 +2696,7 @@
       </c>
       <c r="G47" s="20"/>
     </row>
-    <row r="48" spans="1:7" ht="45">
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>113</v>
       </c>
@@ -2599,7 +2715,7 @@
       </c>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" spans="1:7" ht="60">
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>114</v>
       </c>
@@ -2618,7 +2734,7 @@
       </c>
       <c r="G49" s="20"/>
     </row>
-    <row r="50" spans="1:7" ht="60">
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>115</v>
       </c>
@@ -2635,7 +2751,7 @@
       </c>
       <c r="G50" s="20"/>
     </row>
-    <row r="51" spans="1:7" ht="60">
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>116</v>
       </c>
@@ -2654,7 +2770,7 @@
       </c>
       <c r="G51" s="20"/>
     </row>
-    <row r="52" spans="1:7" ht="60">
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>150</v>
       </c>
@@ -2673,7 +2789,7 @@
       </c>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="1:7" ht="60">
+    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>155</v>
       </c>
@@ -2692,7 +2808,7 @@
       </c>
       <c r="G53" s="20"/>
     </row>
-    <row r="54" spans="1:7" ht="45">
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>156</v>
       </c>
@@ -2711,7 +2827,7 @@
       </c>
       <c r="G54" s="20"/>
     </row>
-    <row r="55" spans="1:7" ht="30">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
         <v>4.4000000000000004</v>
       </c>
@@ -2724,7 +2840,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="26"/>
     </row>
-    <row r="56" spans="1:7" ht="45">
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>163</v>
       </c>
@@ -2741,7 +2857,7 @@
       </c>
       <c r="G56" s="20"/>
     </row>
-    <row r="57" spans="1:7" ht="195">
+    <row r="57" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>164</v>
       </c>
@@ -2758,7 +2874,7 @@
       </c>
       <c r="G57" s="20"/>
     </row>
-    <row r="58" spans="1:7" ht="75">
+    <row r="58" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>165</v>
       </c>
@@ -2775,7 +2891,7 @@
       </c>
       <c r="G58" s="20"/>
     </row>
-    <row r="59" spans="1:7" ht="90">
+    <row r="59" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>166</v>
       </c>
@@ -2792,7 +2908,7 @@
       </c>
       <c r="G59" s="20"/>
     </row>
-    <row r="60" spans="1:7" ht="75">
+    <row r="60" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>167</v>
       </c>
@@ -2809,7 +2925,7 @@
       </c>
       <c r="G60" s="20"/>
     </row>
-    <row r="61" spans="1:7" ht="75">
+    <row r="61" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>168</v>
       </c>
@@ -2826,7 +2942,7 @@
       </c>
       <c r="G61" s="20"/>
     </row>
-    <row r="62" spans="1:7" ht="75">
+    <row r="62" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
         <v>169</v>
       </c>
@@ -2843,7 +2959,7 @@
       </c>
       <c r="G62" s="20"/>
     </row>
-    <row r="63" spans="1:7" ht="60">
+    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>170</v>
       </c>
@@ -2860,7 +2976,7 @@
       </c>
       <c r="G63" s="20"/>
     </row>
-    <row r="64" spans="1:7" ht="30">
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <v>4.5</v>
       </c>
@@ -2873,7 +2989,7 @@
       <c r="F64" s="9"/>
       <c r="G64" s="26"/>
     </row>
-    <row r="65" spans="1:7" ht="75">
+    <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
         <v>184</v>
       </c>
@@ -2892,7 +3008,7 @@
       </c>
       <c r="G65" s="20"/>
     </row>
-    <row r="66" spans="1:7" ht="60">
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="27" t="s">
         <v>185</v>
       </c>
@@ -2909,7 +3025,7 @@
       </c>
       <c r="G66" s="20"/>
     </row>
-    <row r="67" spans="1:7" ht="75">
+    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="27" t="s">
         <v>186</v>
       </c>
@@ -2926,7 +3042,7 @@
       </c>
       <c r="G67" s="20"/>
     </row>
-    <row r="68" spans="1:7" ht="150">
+    <row r="68" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
         <v>187</v>
       </c>
@@ -2943,7 +3059,7 @@
       </c>
       <c r="G68" s="20"/>
     </row>
-    <row r="69" spans="1:7" ht="45">
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
         <v>188</v>
       </c>
@@ -2960,7 +3076,7 @@
       </c>
       <c r="G69" s="20"/>
     </row>
-    <row r="70" spans="1:7" ht="45">
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
         <v>216</v>
       </c>
@@ -2973,7 +3089,7 @@
       <c r="F70" s="17"/>
       <c r="G70" s="29"/>
     </row>
-    <row r="71" spans="1:7" ht="45">
+    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
         <v>199</v>
       </c>
@@ -2992,7 +3108,7 @@
       </c>
       <c r="G71" s="20"/>
     </row>
-    <row r="72" spans="1:7" ht="60">
+    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
         <v>202</v>
       </c>
@@ -3009,7 +3125,7 @@
       </c>
       <c r="G72" s="20"/>
     </row>
-    <row r="73" spans="1:7" ht="60">
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
         <v>203</v>
       </c>
@@ -3026,7 +3142,7 @@
       </c>
       <c r="G73" s="20"/>
     </row>
-    <row r="74" spans="1:7" ht="285">
+    <row r="74" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>204</v>
       </c>
@@ -3043,7 +3159,7 @@
       </c>
       <c r="G74" s="20"/>
     </row>
-    <row r="75" spans="1:7" ht="90">
+    <row r="75" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
         <v>205</v>
       </c>
@@ -3062,7 +3178,7 @@
       </c>
       <c r="G75" s="20"/>
     </row>
-    <row r="76" spans="1:7" ht="75">
+    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>206</v>
       </c>
@@ -3079,7 +3195,7 @@
       </c>
       <c r="G76" s="20"/>
     </row>
-    <row r="77" spans="1:7" ht="45">
+    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
         <v>217</v>
       </c>
@@ -3092,7 +3208,7 @@
       <c r="F77" s="17"/>
       <c r="G77" s="29"/>
     </row>
-    <row r="78" spans="1:7" ht="60">
+    <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>227</v>
       </c>
@@ -3109,7 +3225,7 @@
       </c>
       <c r="G78" s="20"/>
     </row>
-    <row r="79" spans="1:7" ht="150">
+    <row r="79" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A79" s="27" t="s">
         <v>228</v>
       </c>
@@ -3126,7 +3242,7 @@
       </c>
       <c r="G79" s="20"/>
     </row>
-    <row r="80" spans="1:7" ht="60">
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
         <v>229</v>
       </c>
@@ -3143,7 +3259,7 @@
       </c>
       <c r="G80" s="20"/>
     </row>
-    <row r="81" spans="1:7" ht="30">
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="35" t="s">
         <v>247</v>
       </c>
@@ -3156,7 +3272,7 @@
       <c r="F81" s="17"/>
       <c r="G81" s="29"/>
     </row>
-    <row r="82" spans="1:7" ht="60">
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
         <v>226</v>
       </c>
@@ -3173,7 +3289,7 @@
       </c>
       <c r="G82" s="20"/>
     </row>
-    <row r="83" spans="1:7" ht="60">
+    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
         <v>230</v>
       </c>
@@ -3190,7 +3306,7 @@
       </c>
       <c r="G83" s="20"/>
     </row>
-    <row r="84" spans="1:7" ht="60">
+    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>231</v>
       </c>
@@ -3207,7 +3323,7 @@
       </c>
       <c r="G84" s="20"/>
     </row>
-    <row r="85" spans="1:7" ht="75">
+    <row r="85" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>232</v>
       </c>
@@ -3224,7 +3340,7 @@
       </c>
       <c r="G85" s="20"/>
     </row>
-    <row r="86" spans="1:7" ht="30">
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>233</v>
       </c>
@@ -3241,7 +3357,7 @@
       </c>
       <c r="G86" s="20"/>
     </row>
-    <row r="87" spans="1:7" ht="60">
+    <row r="87" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>234</v>
       </c>
@@ -3258,7 +3374,7 @@
       </c>
       <c r="G87" s="20"/>
     </row>
-    <row r="88" spans="1:7" ht="60">
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>235</v>
       </c>
@@ -3275,7 +3391,7 @@
       </c>
       <c r="G88" s="20"/>
     </row>
-    <row r="89" spans="1:7" ht="60">
+    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>236</v>
       </c>
@@ -3292,7 +3408,7 @@
       </c>
       <c r="G89" s="20"/>
     </row>
-    <row r="90" spans="1:7" ht="60">
+    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>237</v>
       </c>
@@ -3309,7 +3425,7 @@
       </c>
       <c r="G90" s="20"/>
     </row>
-    <row r="91" spans="1:7" ht="60">
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>238</v>
       </c>
@@ -3326,7 +3442,7 @@
       </c>
       <c r="G91" s="20"/>
     </row>
-    <row r="92" spans="1:7" ht="60">
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>239</v>
       </c>
@@ -3343,7 +3459,7 @@
       </c>
       <c r="G92" s="20"/>
     </row>
-    <row r="93" spans="1:7" ht="60">
+    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>240</v>
       </c>
@@ -3360,7 +3476,7 @@
       </c>
       <c r="G93" s="20"/>
     </row>
-    <row r="94" spans="1:7" ht="60">
+    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>241</v>
       </c>
@@ -3377,7 +3493,7 @@
       </c>
       <c r="G94" s="20"/>
     </row>
-    <row r="95" spans="1:7" ht="60">
+    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>242</v>
       </c>
@@ -3394,7 +3510,7 @@
       </c>
       <c r="G95" s="20"/>
     </row>
-    <row r="96" spans="1:7" ht="75">
+    <row r="96" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
         <v>243</v>
       </c>
@@ -3411,7 +3527,7 @@
       </c>
       <c r="G96" s="20"/>
     </row>
-    <row r="97" spans="1:7" ht="60">
+    <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
         <v>244</v>
       </c>
@@ -3428,7 +3544,7 @@
       </c>
       <c r="G97" s="20"/>
     </row>
-    <row r="98" spans="1:7" ht="75">
+    <row r="98" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>245</v>
       </c>
@@ -3445,7 +3561,7 @@
       </c>
       <c r="G98" s="20"/>
     </row>
-    <row r="99" spans="1:7" ht="60">
+    <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>246</v>
       </c>
@@ -3462,7 +3578,7 @@
       </c>
       <c r="G99" s="20"/>
     </row>
-    <row r="100" spans="1:7" ht="30">
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="35" t="s">
         <v>263</v>
       </c>
@@ -3475,7 +3591,7 @@
       <c r="F100" s="17"/>
       <c r="G100" s="29"/>
     </row>
-    <row r="101" spans="1:7" ht="240">
+    <row r="101" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
         <v>266</v>
       </c>
@@ -3492,7 +3608,7 @@
       </c>
       <c r="G101" s="20"/>
     </row>
-    <row r="102" spans="1:7" ht="90">
+    <row r="102" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>267</v>
       </c>
@@ -3509,7 +3625,7 @@
       </c>
       <c r="G102" s="20"/>
     </row>
-    <row r="103" spans="1:7" ht="60.75" thickBot="1">
+    <row r="103" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="30" t="s">
         <v>268</v>
       </c>
@@ -3526,33 +3642,38 @@
       </c>
       <c r="G103" s="34"/>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="F65:F69 F82:F99 F39:F54 F56:F63 F7:F12 F14:F18 F20:F37">
     <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="BLOCKED">
@@ -3612,33 +3733,284 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:A4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="57">
+        <v>4</v>
+      </c>
+      <c r="B7" s="58">
+        <f>COUNTIF(Sheet1!F7:F12, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="58">
+        <f>COUNTIF(Sheet1!F7:F12, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="58">
+        <f>COUNTIF(Sheet1!F7:F12, Sheet2!D6)</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="58">
+        <f>COUNTIF(Sheet1!F7:F12, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="57">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B8" s="58">
+        <f>COUNTIF(Sheet1!F14:F18, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="58">
+        <f>COUNTIF(Sheet1!F14:F18, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="58">
+        <f>COUNTIF(Sheet1!F14:F18, Sheet2!D6)</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="58">
+        <f>COUNTIF(Sheet1!F14:F18, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="57">
+        <v>4.2</v>
+      </c>
+      <c r="B9" s="58">
+        <f>COUNTIF(Sheet1!F20:F37, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="58">
+        <f>COUNTIF(Sheet1!F20:F37, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="58">
+        <f>COUNTIF(Sheet1!F20:F37, Sheet2!D6)</f>
+        <v>18</v>
+      </c>
+      <c r="E9" s="58">
+        <f>COUNTIF(Sheet1!F20:F37, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="57">
+        <v>4.3</v>
+      </c>
+      <c r="B10" s="58">
+        <f>COUNTIF(Sheet1!F39:F54, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="58">
+        <f>COUNTIF(Sheet1!F39:F54, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="58">
+        <f>COUNTIF(Sheet1!F39:F54, Sheet2!D6)</f>
+        <v>16</v>
+      </c>
+      <c r="E10" s="58">
+        <f>COUNTIF(Sheet1!F39:F54, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="57">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B11" s="58">
+        <f>COUNTIF(Sheet1!F56:F63, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="58">
+        <f>COUNTIF(Sheet1!F56:F63, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="58">
+        <f>COUNTIF(Sheet1!F56:F63, Sheet2!D6)</f>
+        <v>8</v>
+      </c>
+      <c r="E11" s="58">
+        <f>COUNTIF(Sheet1!F56:F63, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="57">
+        <v>4.5</v>
+      </c>
+      <c r="B12" s="58">
+        <f>COUNTIF(Sheet1!F65:F69, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="58">
+        <f>COUNTIF(Sheet1!F65:F69, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="58">
+        <f>COUNTIF(Sheet1!F65:F69, Sheet2!D6)</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="58">
+        <f>COUNTIF(Sheet1!F65:F69, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="58">
+        <f>COUNTIF(Sheet1!F71:F76, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="58">
+        <f>COUNTIF(Sheet1!F71:F76, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="58">
+        <f>COUNTIF(Sheet1!F71:F76, Sheet2!D6)</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="58">
+        <f>COUNTIF(Sheet1!F71:F76, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="58">
+        <f>COUNTIF(Sheet1!F78:F80, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="58">
+        <f>COUNTIF(Sheet1!F78:F80, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="58">
+        <f>COUNTIF(Sheet1!F78:F80, Sheet2!D6)</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="58">
+        <f>COUNTIF(Sheet1!F78:F80, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="58">
+        <f>COUNTIF(Sheet1!F82:F99, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="58">
+        <f>COUNTIF(Sheet1!F82:F99, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="58">
+        <f>COUNTIF(Sheet1!F82:F99, Sheet2!D6)</f>
+        <v>18</v>
+      </c>
+      <c r="E15" s="58">
+        <f>COUNTIF(Sheet1!F82:F99, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="58">
+        <f>COUNTIF(Sheet1!F101:F103, Sheet2!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="58">
+        <f>COUNTIF(Sheet1!F101:F103, Sheet2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="58">
+        <f>COUNTIF(Sheet1!F101:F103, Sheet2!D6)</f>
+        <v>3</v>
+      </c>
+      <c r="E16" s="58">
+        <f>COUNTIF(Sheet1!F101:F103, Sheet2!E6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B7:B16)</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C7:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D7:D16)</f>
+        <v>88</v>
+      </c>
+      <c r="E17">
+        <f>SUM(E7:E16)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3647,31 +4019,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
